--- a/CPE Electives (1 - 3)/01. Lectures Notebook/44. Time-Series - Descriptive Statistics Test/00. Sample Excel Computations.xlsx
+++ b/CPE Electives (1 - 3)/01. Lectures Notebook/44. Time-Series - Descriptive Statistics Test/00. Sample Excel Computations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>test</t>
   </si>
@@ -35,13 +35,19 @@
   <si>
     <t>MAPE</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -80,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -88,12 +94,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,25 +402,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,7 +440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>26</v>
       </c>
@@ -457,7 +464,7 @@
         <v>11.538461538461538</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>27</v>
       </c>
@@ -481,7 +488,7 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>26</v>
       </c>
@@ -505,7 +512,7 @@
         <v>11.538461538461538</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>22</v>
       </c>
@@ -529,7 +536,7 @@
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>27</v>
       </c>
@@ -553,7 +560,7 @@
         <v>11.111111111111111</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>23</v>
       </c>
@@ -577,7 +584,7 @@
         <v>17.391304347826086</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>27</v>
       </c>
@@ -601,7 +608,7 @@
         <v>18.518518518518519</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>25</v>
       </c>
@@ -625,7 +632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>21</v>
       </c>
@@ -649,7 +656,7 @@
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>25</v>
       </c>
@@ -673,7 +680,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <f>AVERAGE(B3:B12)</f>
+        <v>24.9</v>
+      </c>
       <c r="C14" s="1">
         <f>AVERAGE(C3:C12)</f>
         <v>24.7</v>
@@ -693,6 +707,15 @@
       <c r="G14" s="3">
         <f>AVERAGE(G3:G12)</f>
         <v>14.796221491873666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <f>_xlfn.STDEV.S(B3:B12)</f>
+        <v>2.1832697191750419</v>
       </c>
     </row>
   </sheetData>
@@ -707,7 +730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -719,7 +742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
